--- a/data/cp_fcv.xlsx
+++ b/data/cp_fcv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.7315886274459898</v>
+        <v>0.7581038730459106</v>
       </c>
       <c r="D2">
-        <v>0.5645597755098822</v>
+        <v>0.02621230083945392</v>
       </c>
       <c r="E2">
-        <v>0.7225333464643235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.5612070710708444</v>
+      </c>
+      <c r="F2">
+        <v>0.03503521274125497</v>
+      </c>
+      <c r="G2">
+        <v>0.7257261574406748</v>
+      </c>
+      <c r="H2">
+        <v>0.01818538711038182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.6474875938275425</v>
+        <v>0.7538638742612394</v>
       </c>
       <c r="D3">
-        <v>0.4931858344330456</v>
+        <v>0.0288019356229122</v>
       </c>
       <c r="E3">
-        <v>0.655063452254798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.5398090777497146</v>
+      </c>
+      <c r="F3">
+        <v>0.03353151315474634</v>
+      </c>
+      <c r="G3">
+        <v>0.726662142971398</v>
+      </c>
+      <c r="H3">
+        <v>0.02246338337303938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.767993790497483</v>
+        <v>0.7812755034078485</v>
       </c>
       <c r="D4">
-        <v>0.6598735302983046</v>
+        <v>0.02120015955865973</v>
       </c>
       <c r="E4">
-        <v>0.7374332397316687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.6672942846635481</v>
+      </c>
+      <c r="F4">
+        <v>0.02809822106611554</v>
+      </c>
+      <c r="G4">
+        <v>0.74285078278352</v>
+      </c>
+      <c r="H4">
+        <v>0.01240178660086847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.6884083136689869</v>
+        <v>0.7109832275150931</v>
       </c>
       <c r="D5">
-        <v>0.5891472096119185</v>
+        <v>0.02098716405844013</v>
       </c>
       <c r="E5">
-        <v>0.6668963729418277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.5908809514844836</v>
+      </c>
+      <c r="F5">
+        <v>0.03353551269733934</v>
+      </c>
+      <c r="G5">
+        <v>0.6805852730898864</v>
+      </c>
+      <c r="H5">
+        <v>0.02543286732970798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.5723482700673577</v>
+        <v>0.7006494510868156</v>
       </c>
       <c r="D6">
-        <v>0.4484941826168709</v>
+        <v>0.02971012758622779</v>
       </c>
       <c r="E6">
-        <v>0.5816608682847353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.5161305134198356</v>
+      </c>
+      <c r="F6">
+        <v>0.02505603624963511</v>
+      </c>
+      <c r="G6">
+        <v>0.6598906605537163</v>
+      </c>
+      <c r="H6">
+        <v>0.01827512639147544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.5515993822247487</v>
+        <v>0.7769181335858562</v>
       </c>
       <c r="D7">
-        <v>0.4368803290972826</v>
+        <v>0.02952922178989007</v>
       </c>
       <c r="E7">
-        <v>0.5798028971121696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.612156124748743</v>
+      </c>
+      <c r="F7">
+        <v>0.03046591651716983</v>
+      </c>
+      <c r="G7">
+        <v>0.747732333759792</v>
+      </c>
+      <c r="H7">
+        <v>0.02132693641557746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.6291249842756067</v>
+        <v>0.7869941765067398</v>
       </c>
       <c r="D8">
-        <v>0.4803656258115923</v>
+        <v>0.0293372834328052</v>
       </c>
       <c r="E8">
-        <v>0.6184246844782887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.7789658706344207</v>
-      </c>
-      <c r="D9">
-        <v>0.6422832051714064</v>
-      </c>
-      <c r="E9">
-        <v>0.7541624828429627</v>
+        <v>0.6595700072994649</v>
+      </c>
+      <c r="F8">
+        <v>0.0348183318750939</v>
+      </c>
+      <c r="G8">
+        <v>0.7540670400568846</v>
+      </c>
+      <c r="H8">
+        <v>0.02015347549556609</v>
       </c>
     </row>
   </sheetData>
